--- a/goals.xlsx
+++ b/goals.xlsx
@@ -143,7 +143,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>5</row>
+      <row>4</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3810000" cy="2857500"/>
@@ -168,7 +168,7 @@
     <from>
       <col>7</col>
       <colOff>0</colOff>
-      <row>5</row>
+      <row>4</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3810000" cy="2857500"/>
@@ -193,7 +193,7 @@
     <from>
       <col>15</col>
       <colOff>0</colOff>
-      <row>5</row>
+      <row>4</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3810000" cy="2857500"/>
@@ -218,7 +218,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>29</row>
+      <row>28</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3810000" cy="2857500"/>
@@ -243,7 +243,7 @@
     <from>
       <col>7</col>
       <colOff>0</colOff>
-      <row>29</row>
+      <row>28</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3810000" cy="2857500"/>
@@ -268,7 +268,7 @@
     <from>
       <col>15</col>
       <colOff>0</colOff>
-      <row>29</row>
+      <row>28</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3810000" cy="2857500"/>
@@ -291,12 +291,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>0</col>
+      <col>2</col>
       <colOff>0</colOff>
-      <row>55</row>
+      <row>50</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3810000" cy="2857500"/>
+    <ext cx="3810000" cy="3810000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="7" name="Image 7" descr="Picture"/>
@@ -304,81 +304,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>7</col>
-      <colOff>0</colOff>
-      <row>55</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3810000" cy="2857500"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="8" name="Image 8" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>15</col>
-      <colOff>0</colOff>
-      <row>55</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3810000" cy="2857500"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="9" name="Image 9" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>79</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3810000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="10" name="Image 10" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -681,7 +606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -716,7 +641,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Procastinationk</t>
+          <t>Procastination</t>
         </is>
       </c>
     </row>
@@ -726,97 +651,58 @@
           <t>Training</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lazy</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chess</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Basketball</t>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Do Activity</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Do Not Activity</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Do Activity</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>Do Not Activity</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Puzzle</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lazy</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Running</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Lazy</t>
-        </is>
-      </c>
+          <t>Theory</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Training</t>
+          <t>GamePlay</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Chess</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Do Activity</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>Do Not Activity</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Puzzle</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Demotivated</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Theory</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>GamePlay</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -829,7 +715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -874,7 +760,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -889,7 +775,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Procastinationk</t>
+          <t>Procastination</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -901,7 +787,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -914,202 +800,115 @@
           <t>✔️</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-10-03</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Lazy</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>✔️</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chess</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Do Activity</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>Do Not Activity</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="inlineStr">
+        <is>
+          <t>Avoided</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Basketball</t>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Puzzle</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>✔️</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Lazy</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>✔️</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>Do Activity</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <t>Do Not Activity</t>
-        </is>
-      </c>
-      <c r="E27" s="1" t="inlineStr">
-        <is>
-          <t>Avoided</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Theory</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Running</t>
+          <t>GamePlay</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Lazy</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
           <t>✔️</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-10-03</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Training</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>✔️</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Chess</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>Do Activity</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
-        <is>
-          <t>Do Not Activity</t>
-        </is>
-      </c>
-      <c r="E52" s="1" t="inlineStr">
-        <is>
-          <t>Avoided</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2025-10-03</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Puzzle</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>✔️</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Demotivated</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>✔️</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2025-10-03</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Theory</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2025-10-03</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>GamePlay</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>✔️</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
